--- a/node/Modified_DATASET_with_all_appliances.xlsx
+++ b/node/Modified_DATASET_with_all_appliances.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="88">
   <si>
     <t>Appliance</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Electronics</t>
   </si>
   <si>
-    <t>Oven</t>
-  </si>
-  <si>
     <t>Personal Care</t>
   </si>
   <si>
@@ -106,15 +103,6 @@
     <t>Food Processor</t>
   </si>
   <si>
-    <t>Electric Shaver</t>
-  </si>
-  <si>
-    <t>Electric Blanket</t>
-  </si>
-  <si>
-    <t>Humidifier</t>
-  </si>
-  <si>
     <t>Electric Fan</t>
   </si>
   <si>
@@ -248,6 +236,48 @@
   </si>
   <si>
     <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>WATER HEATER</t>
+  </si>
+  <si>
+    <t>HAIR TRIMMER</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>TUBE LIGHT</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>WATER MOTOR</t>
+  </si>
+  <si>
+    <t>Pumping</t>
+  </si>
+  <si>
+    <t>UPS BATTERY</t>
+  </si>
+  <si>
+    <t>Backup Power</t>
+  </si>
+  <si>
+    <t>TABLE FAN</t>
+  </si>
+  <si>
+    <t>ELECTRIC MIXER</t>
+  </si>
+  <si>
+    <t>ELECTRIC OVEN</t>
+  </si>
+  <si>
+    <t>ELECTRIC HEATING PAD</t>
+  </si>
+  <si>
+    <t>AIR HUMIDIFIER</t>
   </si>
 </sst>
 </file>
@@ -602,15 +632,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" customWidth="1"/>
@@ -668,7 +702,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -677,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>16000</v>
@@ -715,22 +749,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>2.08</v>
+        <v>3.75</v>
       </c>
       <c r="E3">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -762,22 +796,22 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -809,22 +843,22 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>1.25</v>
       </c>
       <c r="E5">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -856,22 +890,22 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>6.25</v>
+        <v>500</v>
       </c>
       <c r="E6">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -903,22 +937,22 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>3.125</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -950,22 +984,22 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>500</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>62.5</v>
-      </c>
       <c r="E8">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -997,28 +1031,28 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="E9">
-        <v>2250</v>
+        <v>480</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1027,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1044,25 +1078,25 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>12.5</v>
+        <v>31.25</v>
       </c>
       <c r="E10">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1091,22 +1125,22 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>4.17</v>
+        <v>500</v>
       </c>
       <c r="E11">
-        <v>600</v>
+        <v>2250</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1138,22 +1172,22 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>1500</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>375</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>6000</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -1185,22 +1219,22 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>1500</v>
+        <v>2.085</v>
       </c>
       <c r="E13">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -1232,25 +1266,25 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>500</v>
+        <v>187.5</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1262,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1279,19 +1313,19 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1326,25 +1360,25 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="E16">
-        <v>750</v>
+        <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1356,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1373,25 +1407,25 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>6.25</v>
       </c>
       <c r="E17">
-        <v>7.5</v>
+        <v>800</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1420,19 +1454,19 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B18">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1467,19 +1501,19 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E19">
-        <v>4000</v>
+        <v>750</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -1514,22 +1548,22 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="C20">
         <v>0.5</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -1561,19 +1595,19 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="E21">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1608,19 +1642,19 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B22">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E22">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -1655,19 +1689,19 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E23">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -1702,22 +1736,22 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>3600</v>
+        <v>750</v>
       </c>
       <c r="E24">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
@@ -1749,22 +1783,22 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C25">
         <v>0.5</v>
       </c>
       <c r="D25">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="E25">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
@@ -1796,22 +1830,22 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
@@ -1843,22 +1877,22 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B27">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D27">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="E27">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
@@ -1890,22 +1924,22 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
-        <v>37.5</v>
+        <v>1000</v>
       </c>
       <c r="E28">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -1937,22 +1971,22 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B29">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D29">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>3000</v>
+        <v>7.5</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
@@ -1984,22 +2018,22 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B30">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1200</v>
+        <v>75</v>
       </c>
       <c r="E30">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
@@ -2031,28 +2065,28 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B31">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>7.5</v>
+        <v>18.75</v>
       </c>
       <c r="E31">
-        <v>480</v>
+        <v>2400</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -2061,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="K31">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2078,19 +2112,19 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>2000</v>
+        <v>375</v>
       </c>
       <c r="E32">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -2105,42 +2139,42 @@
         <v>17</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B33">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E33">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -2172,19 +2206,19 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C34">
         <v>0.5</v>
       </c>
       <c r="D34">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="E34">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -2199,45 +2233,45 @@
         <v>17</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="N34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B35">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D35">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="E35">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2249,7 +2283,7 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2266,28 +2300,28 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>6.25</v>
+        <v>125</v>
       </c>
       <c r="E36">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -2296,16 +2330,16 @@
         <v>5</v>
       </c>
       <c r="K36">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O36" t="s">
         <v>20</v>
@@ -2313,19 +2347,19 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>600</v>
+        <v>3.125</v>
       </c>
       <c r="E37">
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -2334,7 +2368,7 @@
         <v>19</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -2343,16 +2377,16 @@
         <v>5</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O37" t="s">
         <v>20</v>
@@ -2360,28 +2394,28 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.42</v>
+        <v>300</v>
       </c>
       <c r="E38">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -2407,28 +2441,28 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B39">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>35</v>
-      </c>
       <c r="E39">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -2454,22 +2488,22 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="E40">
-        <v>1600</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
@@ -2501,25 +2535,25 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>250</v>
+        <v>12.5</v>
       </c>
       <c r="E41">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -2531,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="K41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2548,25 +2582,25 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B42">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="C42">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>600</v>
+        <v>125</v>
       </c>
       <c r="E42">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2578,7 +2612,7 @@
         <v>5</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2595,22 +2629,22 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B43">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D43">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43">
-        <v>1600</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -2642,169 +2676,169 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E44">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K44">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B45">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>6.25</v>
+      </c>
+      <c r="E45">
+        <v>200</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1.2</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
         <v>0.5</v>
       </c>
-      <c r="D45">
-        <v>1600</v>
-      </c>
-      <c r="E45">
-        <v>400</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45">
-        <v>5</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
       <c r="N45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B46">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N46">
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="E47">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -2830,22 +2864,22 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B48">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E48">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -2877,93 +2911,93 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B49">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>1250</v>
+        <v>6.67</v>
       </c>
       <c r="E49">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N49">
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B50">
         <v>500</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E50">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
       </c>
       <c r="J50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K50">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="O50" t="s">
         <v>17</v>
@@ -2971,22 +3005,22 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B51">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C51">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E51">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3018,19 +3052,19 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>4.17</v>
+        <v>625</v>
       </c>
       <c r="E52">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -3063,8 +3097,337 @@
         <v>20</v>
       </c>
     </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>250</v>
+      </c>
+      <c r="E53">
+        <v>500</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53">
+        <v>8</v>
+      </c>
+      <c r="K53">
+        <v>1.3</v>
+      </c>
+      <c r="L53">
+        <v>1.5</v>
+      </c>
+      <c r="M53">
+        <v>1.2</v>
+      </c>
+      <c r="N53">
+        <v>7</v>
+      </c>
+      <c r="O53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>3000</v>
+      </c>
+      <c r="C54">
+        <v>1.5</v>
+      </c>
+      <c r="D54">
+        <v>1000</v>
+      </c>
+      <c r="E54">
+        <v>4500</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
+      <c r="O54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>1000</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>125</v>
+      </c>
+      <c r="E55">
+        <v>4000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>1.5</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>10</v>
+      </c>
+      <c r="O55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>1000</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>125</v>
+      </c>
+      <c r="E56">
+        <v>4000</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>1.5</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>10</v>
+      </c>
+      <c r="O56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57">
+        <v>750</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>250</v>
+      </c>
+      <c r="E57">
+        <v>1125</v>
+      </c>
+      <c r="F57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>1.3</v>
+      </c>
+      <c r="L57">
+        <v>1.2</v>
+      </c>
+      <c r="M57">
+        <v>0.8</v>
+      </c>
+      <c r="N57">
+        <v>50</v>
+      </c>
+      <c r="O57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>2.085</v>
+      </c>
+      <c r="E58">
+        <v>2400</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>0.21</v>
+      </c>
+      <c r="E59">
+        <v>240</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>10</v>
+      </c>
+      <c r="O59" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:O52">
+  <sortState ref="A2:O59">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
